--- a/output/piaseczno/2020/sheets/year_2020.xlsx
+++ b/output/piaseczno/2020/sheets/year_2020.xlsx
@@ -481,159 +481,135 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>01</t>
-        </is>
+      <c r="A2" t="n">
+        <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>39.16129032258065</v>
+        <v>42.44461032415767</v>
       </c>
       <c r="C2" t="n">
-        <v>38.61290322580644</v>
+        <v>42.43813728390974</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>02</t>
-        </is>
+      <c r="A3" t="n">
+        <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>29.33793103448276</v>
+        <v>39.6920375657444</v>
       </c>
       <c r="C3" t="n">
-        <v>35.27586206896552</v>
+        <v>41.70800834321572</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>03</t>
-        </is>
+      <c r="A4" t="n">
+        <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>16.86129032258064</v>
+        <v>40.49100025628781</v>
       </c>
       <c r="C4" t="n">
-        <v>18.1</v>
+        <v>42.19957568535588</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>04</t>
-        </is>
+      <c r="A5" t="n">
+        <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>4.85</v>
+        <v>36.41371020218725</v>
       </c>
       <c r="C5" t="n">
-        <v>6.269999999999999</v>
+        <v>30.97326975294258</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>05</t>
-        </is>
+      <c r="A6" t="n">
+        <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>7.461290322580646</v>
+        <v>33.57300333752934</v>
       </c>
       <c r="C6" t="n">
-        <v>17.26774193548387</v>
+        <v>36.88445457902631</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>06</t>
-        </is>
+      <c r="A7" t="n">
+        <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>13.18</v>
+        <v>32.3822650239718</v>
       </c>
       <c r="C7" t="n">
-        <v>14.11</v>
+        <v>32.94049491933458</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>07</t>
-        </is>
+      <c r="A8" t="n">
+        <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>29.36774193548387</v>
+        <v>37.92829170437723</v>
       </c>
       <c r="C8" t="n">
-        <v>27.94516129032258</v>
+        <v>38.02656107716032</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>08</t>
-        </is>
+      <c r="A9" t="n">
+        <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>38.01935483870967</v>
+        <v>39.73621356650433</v>
       </c>
       <c r="C9" t="n">
-        <v>36.98387096774194</v>
+        <v>37.77966775471136</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>09</t>
-        </is>
+      <c r="A10" t="n">
+        <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>35.85666666666667</v>
+        <v>39.00279428989693</v>
       </c>
       <c r="C10" t="n">
-        <v>29.25666666666666</v>
+        <v>38.35559211601937</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
+      <c r="A11" t="n">
+        <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>34.13548387096775</v>
+        <v>38.4395159891264</v>
       </c>
       <c r="C11" t="n">
-        <v>24.04516129032258</v>
+        <v>36.94683200711039</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
+      <c r="A12" t="n">
+        <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>24.24</v>
+        <v>37.87240257115823</v>
       </c>
       <c r="C12" t="n">
-        <v>26.56</v>
+        <v>34.8406821108502</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
+      <c r="A13" t="n">
+        <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>29.2741935483871</v>
+        <v>37.66435797999407</v>
       </c>
       <c r="C13" t="n">
-        <v>18.83225806451613</v>
+        <v>37.06384038761095</v>
       </c>
     </row>
   </sheetData>
